--- a/data/trans_orig/P04B3_2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P04B3_2_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{586F9327-80CF-4978-897A-2A212B3E9459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E56E043-5B12-404E-B30D-D2ABBCFDC9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A8E0A7BE-B2D1-4CC4-BD88-51ECAF47A0EE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2F8913CE-D3DB-4D45-B1F7-30CE71CA293C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="260">
   <si>
     <t>Población según si percibe la temperatura en la vivienda durante el invierno como un problema en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>22,71%</t>
   </si>
   <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
   </si>
   <si>
     <t>21,76%</t>
   </si>
   <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
   </si>
   <si>
     <t>22,25%</t>
   </si>
   <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
   </si>
   <si>
     <t>A veces</t>
@@ -104,523 +104,511 @@
     <t>10,46%</t>
   </si>
   <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
   </si>
   <si>
     <t>13,99%</t>
   </si>
   <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
   </si>
   <si>
     <t>12,17%</t>
   </si>
   <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>Apenas</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>Nunca/No</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>56,34%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
     <t>8,86%</t>
   </si>
   <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>Apenas</t>
-  </si>
-  <si>
-    <t>18,53%</t>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>42,13%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>43,75%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
   </si>
   <si>
     <t>12,95%</t>
   </si>
   <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>Nunca/No</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>52,56%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
   </si>
   <si>
     <t>15,79%</t>
   </si>
   <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>60,09%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>56,69%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
   </si>
   <si>
     <t>20,27%</t>
   </si>
   <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
     <t>18,82%</t>
   </si>
   <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>47,47%</t>
   </si>
   <si>
     <t>45,54%</t>
   </si>
   <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
   </si>
   <si>
     <t>44,64%</t>
   </si>
   <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
+    <t>46,93%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -629,208 +617,202 @@
     <t>19,57%</t>
   </si>
   <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
   </si>
   <si>
     <t>16,23%</t>
   </si>
   <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
   </si>
   <si>
     <t>17,58%</t>
   </si>
   <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
   </si>
   <si>
     <t>15,85%</t>
   </si>
   <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
   </si>
   <si>
     <t>13,92%</t>
   </si>
   <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
   </si>
   <si>
     <t>14,7%</t>
   </si>
   <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
   </si>
   <si>
     <t>20,88%</t>
   </si>
   <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
   </si>
   <si>
     <t>18,69%</t>
   </si>
   <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
   </si>
   <si>
     <t>43,7%</t>
   </si>
   <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
   </si>
   <si>
     <t>52,64%</t>
   </si>
   <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
   </si>
   <si>
     <t>49,02%</t>
   </si>
   <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
   </si>
   <si>
     <t>19,92%</t>
   </si>
   <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
   </si>
   <si>
     <t>19,54%</t>
   </si>
   <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
   </si>
   <si>
     <t>19,72%</t>
   </si>
   <si>
-    <t>18,43%</t>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
   </si>
   <si>
     <t>13,97%</t>
   </si>
   <si>
-    <t>15,34%</t>
+    <t>12,62%</t>
   </si>
   <si>
     <t>13,51%</t>
   </si>
   <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
   </si>
   <si>
     <t>13,73%</t>
   </si>
   <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
   </si>
   <si>
     <t>19,05%</t>
   </si>
   <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
   </si>
   <si>
     <t>17,4%</t>
   </si>
   <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
   </si>
   <si>
     <t>18,18%</t>
   </si>
   <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
   </si>
   <si>
     <t>47,06%</t>
   </si>
   <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
   </si>
   <si>
     <t>49,54%</t>
   </si>
   <si>
-    <t>47,29%</t>
-  </si>
-  <si>
-    <t>55,16%</t>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
   </si>
   <si>
     <t>48,38%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1245,7 +1227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F12740B-1433-45D3-AD19-369062E106E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2DC5610-B5F9-4E49-A738-F60E323E27C3}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1728,13 +1710,13 @@
         <v>77388</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>89</v>
@@ -1743,13 +1725,13 @@
         <v>92777</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>137</v>
@@ -1758,13 +1740,13 @@
         <v>170166</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1779,13 +1761,13 @@
         <v>191315</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>223</v>
@@ -1794,13 +1776,13 @@
         <v>235171</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>361</v>
@@ -1809,13 +1791,13 @@
         <v>426486</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1871,7 +1853,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1883,13 +1865,13 @@
         <v>114097</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>155</v>
@@ -1898,13 +1880,13 @@
         <v>116675</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>272</v>
@@ -1913,13 +1895,13 @@
         <v>230772</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1934,13 +1916,13 @@
         <v>67117</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>91</v>
@@ -1949,13 +1931,13 @@
         <v>65825</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>155</v>
@@ -1964,13 +1946,13 @@
         <v>132942</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1985,13 +1967,13 @@
         <v>107445</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>152</v>
@@ -2000,13 +1982,13 @@
         <v>105168</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>250</v>
@@ -2015,13 +1997,13 @@
         <v>212613</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2036,13 +2018,13 @@
         <v>268433</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>448</v>
@@ -2051,13 +2033,13 @@
         <v>321842</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>714</v>
@@ -2066,13 +2048,13 @@
         <v>590276</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2128,7 +2110,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2143,10 +2125,10 @@
         <v>29</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>203</v>
@@ -2155,13 +2137,13 @@
         <v>148667</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>315</v>
@@ -2170,13 +2152,13 @@
         <v>264762</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2191,13 +2173,13 @@
         <v>100933</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>162</v>
@@ -2206,13 +2188,13 @@
         <v>107839</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>255</v>
@@ -2221,13 +2203,13 @@
         <v>208772</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2242,13 +2224,13 @@
         <v>123793</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>199</v>
@@ -2257,13 +2239,13 @@
         <v>133297</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>317</v>
@@ -2272,13 +2254,13 @@
         <v>257091</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2293,13 +2275,13 @@
         <v>383169</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>574</v>
@@ -2308,13 +2290,13 @@
         <v>355891</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>916</v>
@@ -2323,13 +2305,13 @@
         <v>739060</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2385,7 +2367,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2397,13 +2379,13 @@
         <v>119129</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="H24" s="7">
         <v>194</v>
@@ -2412,13 +2394,13 @@
         <v>126794</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M24" s="7">
         <v>329</v>
@@ -2427,13 +2409,13 @@
         <v>245923</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,13 +2430,13 @@
         <v>97935</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="H25" s="7">
         <v>149</v>
@@ -2463,13 +2445,13 @@
         <v>93283</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M25" s="7">
         <v>250</v>
@@ -2478,13 +2460,13 @@
         <v>191218</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2499,13 +2481,13 @@
         <v>120519</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H26" s="7">
         <v>169</v>
@@ -2514,13 +2496,13 @@
         <v>104721</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M26" s="7">
         <v>297</v>
@@ -2529,13 +2511,13 @@
         <v>225240</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,13 +2532,13 @@
         <v>262574</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>186</v>
+        <v>116</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H27" s="7">
         <v>489</v>
@@ -2565,13 +2547,13 @@
         <v>271594</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="M27" s="7">
         <v>788</v>
@@ -2580,13 +2562,13 @@
         <v>534168</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>193</v>
+        <v>45</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,7 +2624,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2654,13 +2636,13 @@
         <v>136573</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H29" s="7">
         <v>292</v>
@@ -2669,13 +2651,13 @@
         <v>166600</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M29" s="7">
         <v>496</v>
@@ -2684,13 +2666,13 @@
         <v>303173</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2687,13 @@
         <v>110579</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H30" s="7">
         <v>260</v>
@@ -2720,13 +2702,13 @@
         <v>142943</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M30" s="7">
         <v>419</v>
@@ -2735,13 +2717,13 @@
         <v>253522</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,13 +2738,13 @@
         <v>145697</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H31" s="7">
         <v>311</v>
@@ -2771,13 +2753,13 @@
         <v>176674</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>216</v>
+        <v>127</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="M31" s="7">
         <v>515</v>
@@ -2786,13 +2768,13 @@
         <v>322371</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,13 +2789,13 @@
         <v>304906</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H32" s="7">
         <v>845</v>
@@ -2822,13 +2804,13 @@
         <v>540420</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M32" s="7">
         <v>1306</v>
@@ -2837,13 +2819,13 @@
         <v>845326</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,7 +2837,7 @@
         <v>1028</v>
       </c>
       <c r="D33" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -2911,13 +2893,13 @@
         <v>674421</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H34" s="7">
         <v>984</v>
@@ -2926,13 +2908,13 @@
         <v>748842</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="M34" s="7">
         <v>1672</v>
@@ -2941,13 +2923,13 @@
         <v>1423264</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,13 +2944,13 @@
         <v>472852</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>126</v>
+        <v>236</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>240</v>
+        <v>76</v>
       </c>
       <c r="H35" s="7">
         <v>749</v>
@@ -2977,13 +2959,13 @@
         <v>517795</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M35" s="7">
         <v>1223</v>
@@ -2992,13 +2974,13 @@
         <v>990648</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3013,13 +2995,13 @@
         <v>644826</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H36" s="7">
         <v>951</v>
@@ -3028,13 +3010,13 @@
         <v>666999</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M36" s="7">
         <v>1573</v>
@@ -3043,13 +3025,13 @@
         <v>1311825</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3064,13 +3046,13 @@
         <v>1592808</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="H37" s="7">
         <v>2676</v>
@@ -3079,13 +3061,13 @@
         <v>1898609</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M37" s="7">
         <v>4266</v>
@@ -3094,13 +3076,13 @@
         <v>3491417</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>264</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3156,7 +3138,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P04B3_2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P04B3_2_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E56E043-5B12-404E-B30D-D2ABBCFDC9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A40AC6E1-90E7-444F-9159-F50B1B320B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2F8913CE-D3DB-4D45-B1F7-30CE71CA293C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B3E8DBA6-C154-4C07-ACF7-8CD37A3CD76E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="298">
   <si>
     <t>Población según si percibe la temperatura en la vivienda durante el invierno como un problema en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -65,754 +65,868 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>A menudo</t>
   </si>
   <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
   </si>
   <si>
     <t>A veces</t>
   </si>
   <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
   </si>
   <si>
     <t>9,68%</t>
   </si>
   <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
   </si>
   <si>
     <t>Apenas</t>
   </si>
   <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>Nunca/No</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>58,33%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
     <t>18,53%</t>
   </si>
   <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>Nunca/No</t>
-  </si>
-  <si>
-    <t>48,3%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>56,34%</t>
-  </si>
-  <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>24,0%</t>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>50,05%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
   </si>
   <si>
     <t>18,92%</t>
   </si>
   <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
   </si>
   <si>
     <t>18,59%</t>
   </si>
   <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>46,12%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>17,75%</t>
   </si>
   <si>
     <t>14,46%</t>
   </si>
   <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
+    <t>21,45%</t>
   </si>
   <si>
     <t>17,88%</t>
   </si>
   <si>
-    <t>15,79%</t>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
   </si>
   <si>
     <t>20,28%</t>
   </si>
   <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>56,69%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>47,47%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1227,8 +1341,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2DC5610-B5F9-4E49-A738-F60E323E27C3}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99ADFC50-1EBF-4202-B058-27BA3CB088DD}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1348,7 +1462,7 @@
         <v>43</v>
       </c>
       <c r="D4" s="7">
-        <v>85771</v>
+        <v>72036</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1363,7 +1477,7 @@
         <v>47</v>
       </c>
       <c r="I4" s="7">
-        <v>77234</v>
+        <v>59027</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1378,7 +1492,7 @@
         <v>90</v>
       </c>
       <c r="N4" s="7">
-        <v>163005</v>
+        <v>131063</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1399,7 +1513,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="7">
-        <v>39514</v>
+        <v>39349</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1414,7 +1528,7 @@
         <v>32</v>
       </c>
       <c r="I5" s="7">
-        <v>49670</v>
+        <v>44071</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1429,7 +1543,7 @@
         <v>51</v>
       </c>
       <c r="N5" s="7">
-        <v>89184</v>
+        <v>83419</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1450,7 +1564,7 @@
         <v>26</v>
       </c>
       <c r="D6" s="7">
-        <v>69984</v>
+        <v>78474</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1465,7 +1579,7 @@
         <v>31</v>
       </c>
       <c r="I6" s="7">
-        <v>54362</v>
+        <v>49426</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1480,7 +1594,7 @@
         <v>57</v>
       </c>
       <c r="N6" s="7">
-        <v>124345</v>
+        <v>127900</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1501,7 +1615,7 @@
         <v>84</v>
       </c>
       <c r="D7" s="7">
-        <v>182411</v>
+        <v>210128</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1516,7 +1630,7 @@
         <v>97</v>
       </c>
       <c r="I7" s="7">
-        <v>173691</v>
+        <v>160677</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1531,7 +1645,7 @@
         <v>181</v>
       </c>
       <c r="N7" s="7">
-        <v>356102</v>
+        <v>370804</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1552,7 +1666,7 @@
         <v>172</v>
       </c>
       <c r="D8" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1567,7 +1681,7 @@
         <v>207</v>
       </c>
       <c r="I8" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1582,7 +1696,7 @@
         <v>379</v>
       </c>
       <c r="N8" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1605,7 +1719,7 @@
         <v>77</v>
       </c>
       <c r="D9" s="7">
-        <v>102757</v>
+        <v>91010</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1620,7 +1734,7 @@
         <v>93</v>
       </c>
       <c r="I9" s="7">
-        <v>112872</v>
+        <v>150746</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1635,7 +1749,7 @@
         <v>170</v>
       </c>
       <c r="N9" s="7">
-        <v>215629</v>
+        <v>241756</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1656,7 +1770,7 @@
         <v>38</v>
       </c>
       <c r="D10" s="7">
-        <v>56775</v>
+        <v>52990</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1671,7 +1785,7 @@
         <v>55</v>
       </c>
       <c r="I10" s="7">
-        <v>58235</v>
+        <v>51438</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1686,7 +1800,7 @@
         <v>93</v>
       </c>
       <c r="N10" s="7">
-        <v>115011</v>
+        <v>104428</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -1707,22 +1821,22 @@
         <v>48</v>
       </c>
       <c r="D11" s="7">
-        <v>77388</v>
+        <v>80358</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="H11" s="7">
         <v>89</v>
       </c>
       <c r="I11" s="7">
-        <v>92777</v>
+        <v>85525</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>72</v>
@@ -1737,7 +1851,7 @@
         <v>137</v>
       </c>
       <c r="N11" s="7">
-        <v>170166</v>
+        <v>165883</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>75</v>
@@ -1758,7 +1872,7 @@
         <v>138</v>
       </c>
       <c r="D12" s="7">
-        <v>191315</v>
+        <v>199024</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>78</v>
@@ -1773,7 +1887,7 @@
         <v>223</v>
       </c>
       <c r="I12" s="7">
-        <v>235171</v>
+        <v>224225</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>81</v>
@@ -1788,7 +1902,7 @@
         <v>361</v>
       </c>
       <c r="N12" s="7">
-        <v>426486</v>
+        <v>423249</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>84</v>
@@ -1809,7 +1923,7 @@
         <v>301</v>
       </c>
       <c r="D13" s="7">
-        <v>428236</v>
+        <v>423382</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1824,7 +1938,7 @@
         <v>460</v>
       </c>
       <c r="I13" s="7">
-        <v>499056</v>
+        <v>511934</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1839,7 +1953,7 @@
         <v>761</v>
       </c>
       <c r="N13" s="7">
-        <v>927292</v>
+        <v>935316</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1862,7 +1976,7 @@
         <v>117</v>
       </c>
       <c r="D14" s="7">
-        <v>114097</v>
+        <v>101160</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>88</v>
@@ -1877,7 +1991,7 @@
         <v>155</v>
       </c>
       <c r="I14" s="7">
-        <v>116675</v>
+        <v>101912</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>91</v>
@@ -1892,16 +2006,16 @@
         <v>272</v>
       </c>
       <c r="N14" s="7">
-        <v>230772</v>
+        <v>203071</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1913,46 +2027,46 @@
         <v>64</v>
       </c>
       <c r="D15" s="7">
-        <v>67117</v>
+        <v>62990</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>91</v>
       </c>
       <c r="I15" s="7">
-        <v>65825</v>
+        <v>60144</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="7" t="s">
-        <v>101</v>
-      </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="M15" s="7">
         <v>155</v>
       </c>
       <c r="N15" s="7">
-        <v>132942</v>
+        <v>123134</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1964,46 +2078,46 @@
         <v>98</v>
       </c>
       <c r="D16" s="7">
-        <v>107445</v>
+        <v>103676</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>152</v>
       </c>
       <c r="I16" s="7">
-        <v>105168</v>
+        <v>98009</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>250</v>
       </c>
       <c r="N16" s="7">
-        <v>212613</v>
+        <v>201684</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2015,46 +2129,46 @@
         <v>266</v>
       </c>
       <c r="D17" s="7">
-        <v>268433</v>
+        <v>268348</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>448</v>
       </c>
       <c r="I17" s="7">
-        <v>321842</v>
+        <v>331047</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>714</v>
       </c>
       <c r="N17" s="7">
-        <v>590276</v>
+        <v>599395</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2066,7 +2180,7 @@
         <v>545</v>
       </c>
       <c r="D18" s="7">
-        <v>557092</v>
+        <v>536174</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -2081,7 +2195,7 @@
         <v>846</v>
       </c>
       <c r="I18" s="7">
-        <v>609509</v>
+        <v>591111</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -2096,7 +2210,7 @@
         <v>1391</v>
       </c>
       <c r="N18" s="7">
-        <v>1166602</v>
+        <v>1127284</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2110,7 +2224,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2119,10 +2233,10 @@
         <v>112</v>
       </c>
       <c r="D19" s="7">
-        <v>116095</v>
+        <v>101299</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>124</v>
@@ -2134,7 +2248,7 @@
         <v>203</v>
       </c>
       <c r="I19" s="7">
-        <v>148667</v>
+        <v>129080</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>126</v>
@@ -2149,7 +2263,7 @@
         <v>315</v>
       </c>
       <c r="N19" s="7">
-        <v>264762</v>
+        <v>230379</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>129</v>
@@ -2170,7 +2284,7 @@
         <v>93</v>
       </c>
       <c r="D20" s="7">
-        <v>100933</v>
+        <v>94088</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>132</v>
@@ -2185,31 +2299,31 @@
         <v>162</v>
       </c>
       <c r="I20" s="7">
-        <v>107839</v>
+        <v>98133</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>255</v>
       </c>
       <c r="N20" s="7">
-        <v>208772</v>
+        <v>192221</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2221,43 +2335,43 @@
         <v>118</v>
       </c>
       <c r="D21" s="7">
-        <v>123793</v>
+        <v>116770</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>199</v>
       </c>
       <c r="I21" s="7">
-        <v>133297</v>
+        <v>123410</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>317</v>
       </c>
       <c r="N21" s="7">
-        <v>257091</v>
+        <v>240181</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>148</v>
@@ -2272,7 +2386,7 @@
         <v>342</v>
       </c>
       <c r="D22" s="7">
-        <v>383169</v>
+        <v>575629</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>149</v>
@@ -2287,7 +2401,7 @@
         <v>574</v>
       </c>
       <c r="I22" s="7">
-        <v>355891</v>
+        <v>360796</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>152</v>
@@ -2302,7 +2416,7 @@
         <v>916</v>
       </c>
       <c r="N22" s="7">
-        <v>739060</v>
+        <v>936426</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>155</v>
@@ -2323,7 +2437,7 @@
         <v>665</v>
       </c>
       <c r="D23" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2338,7 +2452,7 @@
         <v>1138</v>
       </c>
       <c r="I23" s="7">
-        <v>745695</v>
+        <v>711419</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2353,7 +2467,7 @@
         <v>1803</v>
       </c>
       <c r="N23" s="7">
-        <v>1469685</v>
+        <v>1599206</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2376,46 +2490,46 @@
         <v>135</v>
       </c>
       <c r="D24" s="7">
-        <v>119129</v>
+        <v>105527</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>159</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>12</v>
+        <v>160</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H24" s="7">
         <v>194</v>
       </c>
       <c r="I24" s="7">
-        <v>126794</v>
+        <v>110524</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M24" s="7">
         <v>329</v>
       </c>
       <c r="N24" s="7">
-        <v>245923</v>
+        <v>216051</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2427,46 +2541,46 @@
         <v>101</v>
       </c>
       <c r="D25" s="7">
-        <v>97935</v>
+        <v>89096</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>91</v>
+        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>149</v>
       </c>
       <c r="I25" s="7">
-        <v>93283</v>
+        <v>84619</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="M25" s="7">
         <v>250</v>
       </c>
       <c r="N25" s="7">
-        <v>191218</v>
+        <v>173716</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2478,37 +2592,37 @@
         <v>128</v>
       </c>
       <c r="D26" s="7">
-        <v>120519</v>
+        <v>112945</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H26" s="7">
         <v>169</v>
       </c>
       <c r="I26" s="7">
-        <v>104721</v>
+        <v>96988</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>95</v>
       </c>
       <c r="M26" s="7">
         <v>297</v>
       </c>
       <c r="N26" s="7">
-        <v>225240</v>
+        <v>209934</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>181</v>
@@ -2529,46 +2643,46 @@
         <v>299</v>
       </c>
       <c r="D27" s="7">
-        <v>262574</v>
+        <v>253665</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>116</v>
+        <v>184</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H27" s="7">
         <v>489</v>
       </c>
       <c r="I27" s="7">
-        <v>271594</v>
+        <v>255154</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M27" s="7">
         <v>788</v>
       </c>
       <c r="N27" s="7">
-        <v>534168</v>
+        <v>508819</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,7 +2694,7 @@
         <v>663</v>
       </c>
       <c r="D28" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>50</v>
@@ -2595,7 +2709,7 @@
         <v>1001</v>
       </c>
       <c r="I28" s="7">
-        <v>596392</v>
+        <v>547285</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -2610,7 +2724,7 @@
         <v>1664</v>
       </c>
       <c r="N28" s="7">
-        <v>1196549</v>
+        <v>1108519</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>50</v>
@@ -2624,55 +2738,55 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>204</v>
+        <v>119</v>
       </c>
       <c r="D29" s="7">
-        <v>136573</v>
+        <v>70777</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H29" s="7">
-        <v>292</v>
+        <v>137</v>
       </c>
       <c r="I29" s="7">
-        <v>166600</v>
+        <v>68159</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M29" s="7">
-        <v>496</v>
+        <v>256</v>
       </c>
       <c r="N29" s="7">
-        <v>303173</v>
+        <v>138937</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,49 +2795,49 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="D30" s="7">
-        <v>110579</v>
+        <v>53940</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>203</v>
+        <v>11</v>
       </c>
       <c r="H30" s="7">
-        <v>260</v>
+        <v>120</v>
       </c>
       <c r="I30" s="7">
-        <v>142943</v>
+        <v>59247</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M30" s="7">
-        <v>419</v>
+        <v>200</v>
       </c>
       <c r="N30" s="7">
-        <v>253522</v>
+        <v>113187</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>209</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2732,49 +2846,49 @@
         <v>30</v>
       </c>
       <c r="C31" s="7">
-        <v>204</v>
+        <v>109</v>
       </c>
       <c r="D31" s="7">
-        <v>145697</v>
+        <v>73655</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>210</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H31" s="7">
-        <v>311</v>
+        <v>141</v>
       </c>
       <c r="I31" s="7">
-        <v>176674</v>
+        <v>73185</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>127</v>
+        <v>213</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M31" s="7">
-        <v>515</v>
+        <v>250</v>
       </c>
       <c r="N31" s="7">
-        <v>322371</v>
+        <v>146841</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,49 +2897,49 @@
         <v>40</v>
       </c>
       <c r="C32" s="7">
-        <v>461</v>
+        <v>262</v>
       </c>
       <c r="D32" s="7">
-        <v>304906</v>
+        <v>169792</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H32" s="7">
-        <v>845</v>
+        <v>429</v>
       </c>
       <c r="I32" s="7">
-        <v>540420</v>
+        <v>407776</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M32" s="7">
-        <v>1306</v>
+        <v>691</v>
       </c>
       <c r="N32" s="7">
-        <v>845326</v>
+        <v>577569</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2834,10 +2948,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D33" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>50</v>
@@ -2849,10 +2963,10 @@
         <v>50</v>
       </c>
       <c r="H33" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I33" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>50</v>
@@ -2864,10 +2978,10 @@
         <v>50</v>
       </c>
       <c r="M33" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N33" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -2881,55 +2995,55 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>228</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>688</v>
+        <v>85</v>
       </c>
       <c r="D34" s="7">
-        <v>674421</v>
+        <v>50197</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H34" s="7">
-        <v>984</v>
+        <v>155</v>
       </c>
       <c r="I34" s="7">
-        <v>748842</v>
+        <v>76120</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M34" s="7">
-        <v>1672</v>
+        <v>240</v>
       </c>
       <c r="N34" s="7">
-        <v>1423264</v>
+        <v>126317</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2938,49 +3052,49 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>474</v>
+        <v>79</v>
       </c>
       <c r="D35" s="7">
-        <v>472852</v>
+        <v>47634</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>76</v>
+        <v>240</v>
       </c>
       <c r="H35" s="7">
-        <v>749</v>
+        <v>140</v>
       </c>
       <c r="I35" s="7">
-        <v>517795</v>
+        <v>68463</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>238</v>
+        <v>66</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="M35" s="7">
-        <v>1223</v>
+        <v>219</v>
       </c>
       <c r="N35" s="7">
-        <v>990648</v>
+        <v>116097</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,49 +3103,49 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>622</v>
+        <v>95</v>
       </c>
       <c r="D36" s="7">
-        <v>644826</v>
+        <v>62284</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H36" s="7">
-        <v>951</v>
+        <v>170</v>
       </c>
       <c r="I36" s="7">
-        <v>666999</v>
+        <v>85878</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M36" s="7">
-        <v>1573</v>
+        <v>265</v>
       </c>
       <c r="N36" s="7">
-        <v>1311825</v>
+        <v>148161</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,49 +3154,49 @@
         <v>40</v>
       </c>
       <c r="C37" s="7">
-        <v>1590</v>
+        <v>199</v>
       </c>
       <c r="D37" s="7">
-        <v>1592808</v>
+        <v>122644</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H37" s="7">
-        <v>2676</v>
+        <v>416</v>
       </c>
       <c r="I37" s="7">
-        <v>1898609</v>
+        <v>195370</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M37" s="7">
-        <v>4266</v>
+        <v>615</v>
       </c>
       <c r="N37" s="7">
-        <v>3491417</v>
+        <v>318014</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>154</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,63 +3205,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>458</v>
+      </c>
+      <c r="D38" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="7">
+        <v>881</v>
+      </c>
+      <c r="I38" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M38" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N38" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>688</v>
+      </c>
+      <c r="D39" s="7">
+        <v>592007</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H39" s="7">
+        <v>984</v>
+      </c>
+      <c r="I39" s="7">
+        <v>695567</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="M39" s="7">
+        <v>1672</v>
+      </c>
+      <c r="N39" s="7">
+        <v>1287574</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>474</v>
+      </c>
+      <c r="D40" s="7">
+        <v>440088</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H40" s="7">
+        <v>749</v>
+      </c>
+      <c r="I40" s="7">
+        <v>466114</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="M40" s="7">
+        <v>1223</v>
+      </c>
+      <c r="N40" s="7">
+        <v>906202</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>622</v>
+      </c>
+      <c r="D41" s="7">
+        <v>628162</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H41" s="7">
+        <v>951</v>
+      </c>
+      <c r="I41" s="7">
+        <v>612421</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="M41" s="7">
+        <v>1573</v>
+      </c>
+      <c r="N41" s="7">
+        <v>1240583</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="7">
+        <v>1590</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1799231</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="H42" s="7">
+        <v>2676</v>
+      </c>
+      <c r="I42" s="7">
+        <v>1935045</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="M42" s="7">
+        <v>4266</v>
+      </c>
+      <c r="N42" s="7">
+        <v>3734276</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>3374</v>
       </c>
-      <c r="D38" s="7">
-        <v>3384908</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="D43" s="7">
+        <v>3459488</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="7">
         <v>5360</v>
       </c>
-      <c r="I38" s="7">
-        <v>3832246</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="I43" s="7">
+        <v>3709148</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M43" s="7">
         <v>8734</v>
       </c>
-      <c r="N38" s="7">
-        <v>7217154</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>259</v>
+      <c r="N43" s="7">
+        <v>7168635</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>297</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
